--- a/Data/Protein Design Example.xlsx
+++ b/Data/Protein Design Example.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{BBBF4DF1-9101-D644-93BC-CA47CD0D92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{82DE3C04-5E9B-6E4C-9641-74B20A2F5D9E}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="20120" activeTab="2" xr2:uid="{82DE3C04-5E9B-6E4C-9641-74B20A2F5D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="gal" sheetId="1" r:id="rId1"/>
@@ -1913,8 +1913,8 @@
       <sheetName val="Vector"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Protein Name</v>
@@ -3183,7 +3183,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/Data/Protein Design Example.xlsx
+++ b/Data/Protein Design Example.xlsx
@@ -21,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
